--- a/medicine/Enfance/Yamile_Saied_Mendez/Yamile_Saied_Mendez.xlsx
+++ b/medicine/Enfance/Yamile_Saied_Mendez/Yamile_Saied_Mendez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yamile (prononcé sha-MEE-lay) [1] Saied Méndez est une auteure argentino-américain de livres d'images, de livres pour enfants, de livres pour jeunes adultes et de romans pour adultes[2]. Elle a reçu la médaille d'or Pura Belpré pour son roman pour jeunes adultes, Furia[3]. Elle est également membre fondatrice du collectif Las Musas[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yamile (prononcé sha-MEE-lay)  Saied Méndez est une auteure argentino-américain de livres d'images, de livres pour enfants, de livres pour jeunes adultes et de romans pour adultes. Elle a reçu la médaille d'or Pura Belpré pour son roman pour jeunes adultes, Furia. Elle est également membre fondatrice du collectif Las Musas.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yamile Saied Méndez est né à Rosario, en Argentine. Elle a grandi attaché à la culture syro-libanais de son grand-père paternel. Sa mère était orpheline mais savait qu'elle était une descendante d'indigènes d'Argentine. Son père conduisait un taxi et sa mère travaillait comme nounou.
-Première parmi les membres de sa famille élargie à fréquenter l'université, elle est allée à l'Université Brigham Young où elle a étudié l'économie internationale[4]. Elle a reçu une maîtrise en beaux-arts du Vermont College of Fine Arts[5].
-Méndez vit actuellement dans l'Utah avec son mari et ses cinq enfants[6].
+Première parmi les membres de sa famille élargie à fréquenter l'université, elle est allée à l'Université Brigham Young où elle a étudié l'économie internationale. Elle a reçu une maîtrise en beaux-arts du Vermont College of Fine Arts.
+Méndez vit actuellement dans l'Utah avec son mari et ses cinq enfants.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bourse Walter Dean Myers pour écrire Furia (2015)
-New York Public Library Best Books of 2019 pour "¿De Dónde Eres?" [7]
-Kirkus Meilleurs livres de 2019 [8]
-Prix littéraires des blogueurs pour enfants et jeunes adultes 2020 (Cybils) pour Furia [9]
-Sélection du YA Book Club de Reese pour Furia (2020) [10]
-Gagnant d'une médaille d'auteur Pura Belpré YA pour Furia (2021) [11]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bourse Walter Dean Myers pour écrire Furia (2015)
+New York Public Library Best Books of 2019 pour "¿De Dónde Eres?" 
+Kirkus Meilleurs livres de 2019 
+Prix littéraires des blogueurs pour enfants et jeunes adultes 2020 (Cybils) pour Furia 
+Sélection du YA Book Club de Reese pour Furia (2020) 
+Gagnant d'une médaille d'auteur Pura Belpré YA pour Furia (2021) </t>
         </is>
       </c>
     </row>
@@ -579,11 +595,13 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The Pen Ten: Une entrevue avec Yamile Saied Méndez [12]
-Yamile Saied Méndez parle de FURIA et de la scène du football argentin [13]
-Cet auteur de l'Utah a un nouveau roman - et Reese Witherspoon vient de le choisir pour son club de lecture[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Pen Ten: Une entrevue avec Yamile Saied Méndez 
+Yamile Saied Méndez parle de FURIA et de la scène du football argentin 
+Cet auteur de l'Utah a un nouveau roman - et Reese Witherspoon vient de le choisir pour son club de lecture.</t>
         </is>
       </c>
     </row>
